--- a/data/hotels_by_city/Houston/Houston_shard_514.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_514.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1485278-Reviews-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-NRG-Park-Medical-Center.h17531.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,701 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r570390383-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1485278</t>
+  </si>
+  <si>
+    <t>570390383</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Good, comfortable stay</t>
+  </si>
+  <si>
+    <t>We chose this hotel to meet up with our family from San Antonio, have just got off a flight from the UK. A good choice for overnight, the rooms were clean, comfortable and affordable. Breakfast was included and it was great, everything was there from hot food to fruit or yoghurt and make your own waffles. Tea &amp; coffee. Everything constantly replenished by staff. Secure parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r564585346-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564585346</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at the Quality Inn at FM1960 @ I-45 in Houston, which is a little bit further south than this one. We had evacuated from our flooded house, during Hurricane Harvey. The manager, Barry, not only saw to it that we and our fellow evacuees were taken care of with the utmost consideration for our needs, but he even took us down the highway to get our rental car. Breakfast was ample, provided every day, and the room was immaculate.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r550646368-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550646368</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday </t>
+  </si>
+  <si>
+    <t>Nice to stay this Hotel . Easy access. Many restaurants around to eat. Check in is speedy. Clean &amp; neatly managed.Rooms are very big with all amenities. Staff are efficient to help all guest. Owner is helping around and talking with all guests.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r505254290-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505254290</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Family Gateway</t>
+  </si>
+  <si>
+    <t>First check in was excellent her name was kathrine very friendly and helpful kind with a simple and patience it was a brezze to check in room spacious and clean a bonus for free full breakfast my daughter lived that waffle maker will stay again when visiting Houston Great price also</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r498054180-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498054180</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Close to airport, clean and roomy</t>
+  </si>
+  <si>
+    <t>We needed a place to spend the night after flying in from Mexico, and this place was close to IAH with restaurants, stores, etc. nearby.  Night employee was ok, but the morning employee was nicer.  Lobby is nice!  We had a room on the 2nd floor which had a balcony and pool view.  It was also gated.  Room was big, clean and updated.  Loved the tile and granite in the bathroom.  Quiet, cool and comfortable.  Will most definitely stay again when close to the airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r493394896-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493394896</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>In town for a couple of Astros game. Great location and limited traffic issues. The room was very spacious an great! The air conditioner was the coldest and it was welcomed for such a big room. Breakfast was great * biscuits- sausage- eggs". The price was a bargain for this property. Very quiet and looked to be in a good area. Overall, I would definitely stay again!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r471988495-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471988495</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Airport Shuttle Issues</t>
+  </si>
+  <si>
+    <t>I work for an airline and my wife and I flew into Houston Bush unexpectedly when we couldn't get home and about the only flights open were into Bush Intercontinental from the airport we were at.  So we hopped on the flight and when we arrived I checked out our company's discount code for Choice Hotels and found this Quality Inn.  I booked it and called for the shuttle.  The woman who answered the phone told me it had to be booked 12 hours in advance.  I thought she misunderstood and was telling me I had to book it 12 hours before leaving the hotel BACK to the airport tomorrow.  I clarified it was to pick us up from the airport and she said yes.I couldn't believe it.  They take part in Choice Hotels' corporate discount for airlines.  When we airline employees travel for leisure, there's always a chance we won't get where we want to go and have to change plans since it's standby travel.  Yet this hotel wants us to figure out our plans 12 hours in advance?!?  I cancelled the reservation and made a reservation at a sister property close to this hotel.  Before I did, my wife called to verify that location had a shuttle that would come get us.  They did, then shook their heads in disbelief at this Quality Inn.  That's pretty bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I work for an airline and my wife and I flew into Houston Bush unexpectedly when we couldn't get home and about the only flights open were into Bush Intercontinental from the airport we were at.  So we hopped on the flight and when we arrived I checked out our company's discount code for Choice Hotels and found this Quality Inn.  I booked it and called for the shuttle.  The woman who answered the phone told me it had to be booked 12 hours in advance.  I thought she misunderstood and was telling me I had to book it 12 hours before leaving the hotel BACK to the airport tomorrow.  I clarified it was to pick us up from the airport and she said yes.I couldn't believe it.  They take part in Choice Hotels' corporate discount for airlines.  When we airline employees travel for leisure, there's always a chance we won't get where we want to go and have to change plans since it's standby travel.  Yet this hotel wants us to figure out our plans 12 hours in advance?!?  I cancelled the reservation and made a reservation at a sister property close to this hotel.  Before I did, my wife called to verify that location had a shuttle that would come get us.  They did, then shook their heads in disbelief at this Quality Inn.  That's pretty bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r459491247-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459491247</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Check-in was the only low grade.  The receptionist was curt and kept disappearing while we were asking questions.  I called after the booking on Expedia to request downstairs (arthritic knee), but the night clerk didn't seem to care.  Seemed aggravated that we asked where our room was.  The morning staff were better, the room was clean and comfortable, the location is just off the I45 and right on the way to our destination.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r451807393-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451807393</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Sadness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel makes me sad. Clean yet run down. And very strange smells in the public areas and my room. The room smells like cheap disinfectant.  Breakfast avoidable, internet and tv intermittent. Saw a raccoon in the roof. And the police twice. Sometimes you get what you pay for. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r435637699-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435637699</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Positive Experience</t>
+  </si>
+  <si>
+    <t>Our experience with this hotel was a positive one.  Our room was clean, and appeared to have renovated recently.  We appreciated having a micro fridge and microwave in our room.  Breakfast was good, with a selection of hot items to choose from.  We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r432815405-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432815405</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Outstanding customer service</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel and checked in. My Visa card wouldn't work and I had no alternative means of paying. I eventually was able to get a family member to pay over the internet but in the mean time the manager allowed me to use his personal cell phone to call my bank.He was incredibly patient and friendy, gave me a welcome pack for my trouble. The gesture went a long way and made a great impression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r428910038-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428910038</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>clean but not well maintained</t>
+  </si>
+  <si>
+    <t>Very clean and the staff was very helpful and friendly, but this hotel is not well maintained.  The hairdryer was broken, the coffee machine did not work correctly, the toilet ran the whole weekend I was there and the cable channels would go in and out.  Normally a little wear and tear doesn't bother me, but this went beyond that.  i would not recommend this place, which is unfortunate because the staff was really great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r416072470-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416072470</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was very good. The room was nice and roomy. A previous guest smoked so the smell wasn't extremely pleasant. The receptionists (checking in and checking out) were helpful and friendly. The food for breakfast was decent but hardly any where to sit. The fitness room is very small and was NO air conditioning. The grounds was nice and clean. The price was just right. I can recommend this hotel to everyone.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r379402411-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379402411</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Had stayed after missing my flight due to horrid weather. I had booked the room due to price. I don't much to say about the establishment as I had checked in last minute (more or less 10 or 11 PM). The staff was polite and the room was decent. What I couldn't stand was the smell of smoke, but you get what paid.  It's not a fancy place, but if you need a room just to sleep - it will work.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r378800984-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378800984</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Hmmmm.</t>
+  </si>
+  <si>
+    <t>I have to echo a recent reviewer about a particular "sullen" desk agent who never smiled, gave a greeting, or a thank you.  I did get a "you're gonna have to come back in 5 to 10 min while we switch staff members" when I checked it in, however.  I guess that was better than nothing.  LOL.  Good luck future Quality Inn customers!  She's bound to like one of you.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r367778730-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367778730</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Quality low</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night because it was inexpensive and offered an airport shuttle.  The girl at the check-in counter had an sullen attitude; "smile" was not in her vocabulary.  When I requested a shuttle for the next morning, she looked annoyed and said she had to call the manager.  Eventually we booked our shuttle for 8:00 A.M. after the driver was summoned to the office.  By the way, it is at least 20 minutes to the airport.  The room was OK but was showing wear.  We couldn't read the dial on the air conditioner.  I don't think there have been any upgrades lately.   At 1:45 A.M. noisy people checked into the room above us.  Breakfast was adequate, seating was not.  All in all, this was not what I expected from Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here one night because it was inexpensive and offered an airport shuttle.  The girl at the check-in counter had an sullen attitude; "smile" was not in her vocabulary.  When I requested a shuttle for the next morning, she looked annoyed and said she had to call the manager.  Eventually we booked our shuttle for 8:00 A.M. after the driver was summoned to the office.  By the way, it is at least 20 minutes to the airport.  The room was OK but was showing wear.  We couldn't read the dial on the air conditioner.  I don't think there have been any upgrades lately.   At 1:45 A.M. noisy people checked into the room above us.  Breakfast was adequate, seating was not.  All in all, this was not what I expected from Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r358689830-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358689830</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Short stay for lay over</t>
+  </si>
+  <si>
+    <t>The final four will be here next weekend!!! DONT STAY HERE!  Check in took 45 minutes, said it was shuttle service to the airport only if make reservation 12 hours in advance! Breakfast no syrup for the waffles, orange juice water down and warm, biscuits were hard like stones! Very noisy, and dirty hallways, bedding torn in bad shape! For a sleep cheap it's not even worth better off staying some place else! Lucky we only need to lay our head for a night!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r356357466-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356357466</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Okay hotel, a bit below par</t>
+  </si>
+  <si>
+    <t>Stayed one night in this hotel. The hotel interior looks old and not fresh. Room is okay, nothing special. The breakfast does not have a lot of variety, but it has a hot section. Slightly below par compared to other hotels bearing Quality Inn name. The room price offered is quite competitive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r337085642-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337085642</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Late Arrival but Very Restful Stay</t>
+  </si>
+  <si>
+    <t>Late flights and missed connections. After long day trying to reach Houston the Monday following Christmas, I arrived here over 7 hours late. About 1 AM.One reason I chose this hotel was that I could cancel up to 4 PM of the day of arrival, unlike many hotels near the airport which require cancellation the day before. Knowing the high probability of flight problems I chose here. I realized my room was being held by my reservation, but I called to alert them that I was going to be arriving late.  Drove in from Shreveport which was the closest airport I could get. Hotel light was still on and I was met by courteous staff.  Off to bed.  Quiet night, good bed, clean hotel.  I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Late flights and missed connections. After long day trying to reach Houston the Monday following Christmas, I arrived here over 7 hours late. About 1 AM.One reason I chose this hotel was that I could cancel up to 4 PM of the day of arrival, unlike many hotels near the airport which require cancellation the day before. Knowing the high probability of flight problems I chose here. I realized my room was being held by my reservation, but I called to alert them that I was going to be arriving late.  Drove in from Shreveport which was the closest airport I could get. Hotel light was still on and I was met by courteous staff.  Off to bed.  Quiet night, good bed, clean hotel.  I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r318109497-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318109497</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Started off great, ended horribly!</t>
+  </si>
+  <si>
+    <t>I went to Houston on a trip with my boyfriend and his son. We stayed on the first floor , room 114, for 4 nights . I was impressed with the lobby/sitting area. Looked clean and high quality for this type of hotel. The room was kind of clean. It was a dead "waterbug" (that's what they told us it was)under the dresser.  Found a couple hairs in the bed and a couple of stains on the carpet and curtains. The bathroom was clean but the showerhead could have been cleaner. It was all good until night 4 when we saw and killed 2 more "waterbugs". We brought the dead bugs (which were the size of an entire thumb) to the manager Sparkle. She insisted they were waterbugs and offered a room change but since it was late and we had the first flight out,we declined and just went to bed. We were told we would get a discount on our room rate due to this inconvenience and Sparkle told us it was already in the system so when we checkout in the am, we would get some $ back. Unfortunately at 5am when we checked out,there was no discount room rate and the girl at the front desk knew nothing about it. So basically Sparkle lied. When we got home back to Chicago, I called and was told she never said that and she said we can have a...I went to Houston on a trip with my boyfriend and his son. We stayed on the first floor , room 114, for 4 nights . I was impressed with the lobby/sitting area. Looked clean and high quality for this type of hotel. The room was kind of clean. It was a dead "waterbug" (that's what they told us it was)under the dresser.  Found a couple hairs in the bed and a couple of stains on the carpet and curtains. The bathroom was clean but the showerhead could have been cleaner. It was all good until night 4 when we saw and killed 2 more "waterbugs". We brought the dead bugs (which were the size of an entire thumb) to the manager Sparkle. She insisted they were waterbugs and offered a room change but since it was late and we had the first flight out,we declined and just went to bed. We were told we would get a discount on our room rate due to this inconvenience and Sparkle told us it was already in the system so when we checkout in the am, we would get some $ back. Unfortunately at 5am when we checked out,there was no discount room rate and the girl at the front desk knew nothing about it. So basically Sparkle lied. When we got home back to Chicago, I called and was told she never said that and she said we can have a free night on our next trip. What makes them think we would stay at a bug infested hotel again?! I know what she said and what we were promised but unfortunately the management lied and never followed through. I wouldn't recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I went to Houston on a trip with my boyfriend and his son. We stayed on the first floor , room 114, for 4 nights . I was impressed with the lobby/sitting area. Looked clean and high quality for this type of hotel. The room was kind of clean. It was a dead "waterbug" (that's what they told us it was)under the dresser.  Found a couple hairs in the bed and a couple of stains on the carpet and curtains. The bathroom was clean but the showerhead could have been cleaner. It was all good until night 4 when we saw and killed 2 more "waterbugs". We brought the dead bugs (which were the size of an entire thumb) to the manager Sparkle. She insisted they were waterbugs and offered a room change but since it was late and we had the first flight out,we declined and just went to bed. We were told we would get a discount on our room rate due to this inconvenience and Sparkle told us it was already in the system so when we checkout in the am, we would get some $ back. Unfortunately at 5am when we checked out,there was no discount room rate and the girl at the front desk knew nothing about it. So basically Sparkle lied. When we got home back to Chicago, I called and was told she never said that and she said we can have a...I went to Houston on a trip with my boyfriend and his son. We stayed on the first floor , room 114, for 4 nights . I was impressed with the lobby/sitting area. Looked clean and high quality for this type of hotel. The room was kind of clean. It was a dead "waterbug" (that's what they told us it was)under the dresser.  Found a couple hairs in the bed and a couple of stains on the carpet and curtains. The bathroom was clean but the showerhead could have been cleaner. It was all good until night 4 when we saw and killed 2 more "waterbugs". We brought the dead bugs (which were the size of an entire thumb) to the manager Sparkle. She insisted they were waterbugs and offered a room change but since it was late and we had the first flight out,we declined and just went to bed. We were told we would get a discount on our room rate due to this inconvenience and Sparkle told us it was already in the system so when we checkout in the am, we would get some $ back. Unfortunately at 5am when we checked out,there was no discount room rate and the girl at the front desk knew nothing about it. So basically Sparkle lied. When we got home back to Chicago, I called and was told she never said that and she said we can have a free night on our next trip. What makes them think we would stay at a bug infested hotel again?! I know what she said and what we were promised but unfortunately the management lied and never followed through. I wouldn't recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r307096222-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307096222</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Above &amp; Beyond Hospitality &amp; Excellent staff</t>
+  </si>
+  <si>
+    <t>Well just want give a shout out to Quality Inn &amp; Suites for going above and beyond customer service i was in a room where I developed some sort of bites on my arms and chest,
+ when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will...Well just want give a shout out to Quality Inn &amp; Suites for going above and beyond customer service i was in a room where I developed some sort of bites on my arms and chest, when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will and then I will get a bill she said ok just let me know also how much was your medicine I will take care of that,  I said listen I really appreciate that but don't worry about reimbursement on my medicine and I don't expect to get the room I'm in now for Free for the next few nights but what can you do on the room for a few more nights so she let me have the jaccuzzi suite till Wednesday at a very very affordable rate, so there is some good people still left in the world thank you so much Gina Cisneros-Courtney for being a good manager and even a better person,  I know when i am in Houston by myself or with  my wife I know where we will be staying at and what room# this is really an amazing room. So if you are in the Houston,TX area I would strongly suggest you call them up and enjoy the amazing hospitality that I have received with an outstanding staff that includes Sparkle, Eric, TimMoreShow less</t>
+  </si>
+  <si>
+    <t>Well just want give a shout out to Quality Inn &amp; Suites for going above and beyond customer service i was in a room where I developed some sort of bites on my arms and chest,
+ when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will...Well just want give a shout out to Quality Inn &amp; Suites for going above and beyond customer service i was in a room where I developed some sort of bites on my arms and chest, when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will and then I will get a bill she said ok just let me know also how much was your medicine I will take care of that,  I said listen I really appreciate that but don't worry about reimbursement on my medicine and I don't expect to get the room I'm in now for Free for the next few nights but what can you do on the room for a few more nights so she let me have the jaccuzzi suite till Wednesday at a very very affordable rate, so there is some good people still left in the world thank you so much Gina Cisneros-Courtney for being a good manager and even a better person,  I know when i am in Houston by myself or with  my wife I know where we will be staying at and what room# this is really an amazing room. So if you are in the Houston,TX area I would strongly suggest you call them up and enjoy the amazing hospitality that I have received with an outstanding staff that includes Sparkle, Eric, TimMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r266259061-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266259061</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Pretty good.</t>
+  </si>
+  <si>
+    <t>The people at the front desk are well-trained. Very polite. I give the room itself 7.5 out of ten. It is fairly modern. The wood furniture is showing some wear. The vent fan in the bathroom was very loud. There are two electrical outlets on the lamp by the bed. Bed comfort- I have had both better and worse. The building must be well-insulated because you can barely hear the freeway outside. I didn't have the breakfast. The parking lot is gated. They do have smoking rooms.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r264985577-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264985577</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Good. Great breakfast and clean room.</t>
+  </si>
+  <si>
+    <t>I've spent two days there, and chose the hotel for its proximity to Houston IAH airport and the price. It faces a highway but I couldn't hear any noise from the room - which was very clean, and with a very good free WiFi to use for my laptop and cell phone. There's a parking lot exclusive to guests.The breakfast was included and for the room rate I found it excellent, with waffle, yogurt, some fruit, and variety of breads, juices, coffee, and eggs and bacon.As another reviewer puts it, not on a superb location, but aren't all unexpensive hotels on distant from center in the US? I don't know of someone who chooses such places to stay and do walks to know of the neighborhood, and all around if that's what you want to do, it will certainly be from a better (and much more expensive) hotel. Staff was very friendly to let me check-in early after a long, international flight, something I didn't get elsewhere on my previous 3 times in Houston.If what you expect is a clean and decent hotel with free WiFi and breakfast for a low price, then I'd say this is a very good one. MoreShow less</t>
+  </si>
+  <si>
+    <t>I've spent two days there, and chose the hotel for its proximity to Houston IAH airport and the price. It faces a highway but I couldn't hear any noise from the room - which was very clean, and with a very good free WiFi to use for my laptop and cell phone. There's a parking lot exclusive to guests.The breakfast was included and for the room rate I found it excellent, with waffle, yogurt, some fruit, and variety of breads, juices, coffee, and eggs and bacon.As another reviewer puts it, not on a superb location, but aren't all unexpensive hotels on distant from center in the US? I don't know of someone who chooses such places to stay and do walks to know of the neighborhood, and all around if that's what you want to do, it will certainly be from a better (and much more expensive) hotel. Staff was very friendly to let me check-in early after a long, international flight, something I didn't get elsewhere on my previous 3 times in Houston.If what you expect is a clean and decent hotel with free WiFi and breakfast for a low price, then I'd say this is a very good one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r258624738-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258624738</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>NOT Recommended</t>
+  </si>
+  <si>
+    <t>I spent $126, including tax for this hotel and am sorry I did. I tried to contact the hotel to inquire about shuttle service from the airport - I didn't hear a human voice for 15 minutes. I was expecting a free shuttle but found out I needed to reserve 12 hours in advance. FYI, you can expect to pay $40, including tip, one way from the airport to the hotel. The roll out sofa bed was awful. It was uncomfortable and stained - so three of us shared the king bed. The hotel is right near the highway and although our room didn't face the highway side, it was loud and I was awoken by a trash truck at 1 a.m. I contacted the manager who did nothing to compensate for my dissatisfaction and I feel utterly ripped off.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>GMQuality, Front Office Manager at Quality Inn &amp; Suites North, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>I spent $126, including tax for this hotel and am sorry I did. I tried to contact the hotel to inquire about shuttle service from the airport - I didn't hear a human voice for 15 minutes. I was expecting a free shuttle but found out I needed to reserve 12 hours in advance. FYI, you can expect to pay $40, including tip, one way from the airport to the hotel. The roll out sofa bed was awful. It was uncomfortable and stained - so three of us shared the king bed. The hotel is right near the highway and although our room didn't face the highway side, it was loud and I was awoken by a trash truck at 1 a.m. I contacted the manager who did nothing to compensate for my dissatisfaction and I feel utterly ripped off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r218029312-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218029312</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Do not let the major renovation statement fool you.</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights and the time at this hotel was certainly the worst part of our time in Houston.The rooms were not clean and furniture was heavily stained.  The pull out sofa bed had an awful mattress that was also heavily stained.One evening there was a party of 20-30 people extremely loud until 3am while my children were trying to sleep.There was an awful smell both outside and in.I wast told on three occasions they had no towels. Our hair dryer did not work, when we asked for a replacement they brought yet another broken one.The last morning when we were packing up we saw a roach climbing on one of our lamps. Fortunately we were leaving, though it scares me to think about what may be in our suitcases!Upon checkout at any other hotel I have stayed at the first question is always "how was your stay." Of course that was not asked here, as they must know how awful their service and product is or they just dont care.This was truly the worst hotel stay I have ever had and do not recommend this location to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights and the time at this hotel was certainly the worst part of our time in Houston.The rooms were not clean and furniture was heavily stained.  The pull out sofa bed had an awful mattress that was also heavily stained.One evening there was a party of 20-30 people extremely loud until 3am while my children were trying to sleep.There was an awful smell both outside and in.I wast told on three occasions they had no towels. Our hair dryer did not work, when we asked for a replacement they brought yet another broken one.The last morning when we were packing up we saw a roach climbing on one of our lamps. Fortunately we were leaving, though it scares me to think about what may be in our suitcases!Upon checkout at any other hotel I have stayed at the first question is always "how was your stay." Of course that was not asked here, as they must know how awful their service and product is or they just dont care.This was truly the worst hotel stay I have ever had and do not recommend this location to anybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r197108520-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197108520</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Not located in the best area</t>
+  </si>
+  <si>
+    <t>My husband and I booked this hotel for our vacation to houston. We read the other reviews and saw that it was rated pretty good.    When we arrived, we weren't too thrilled about the location. There was alot of foot traffic down the street of the hotel and the parking lot had to be gated which tells you something right there. As we checked in we were required to sign a paper saying we would not smoke in the room. Both of us being non smoking anyway signed it with no issues. As we pulled into the parking lot we saw people with their heads out their room windows smoking. We opened our room and it smelt like cigarettes and was masked with an air freshener. We notified the hotel because we didn't want to get charged incidental fees because they thought we caused the smell, and told them that we were okay with keeping the room for the night. We will be checking out early and canceling the rest of our reservation.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My husband and I booked this hotel for our vacation to houston. We read the other reviews and saw that it was rated pretty good.    When we arrived, we weren't too thrilled about the location. There was alot of foot traffic down the street of the hotel and the parking lot had to be gated which tells you something right there. As we checked in we were required to sign a paper saying we would not smoke in the room. Both of us being non smoking anyway signed it with no issues. As we pulled into the parking lot we saw people with their heads out their room windows smoking. We opened our room and it smelt like cigarettes and was masked with an air freshener. We notified the hotel because we didn't want to get charged incidental fees because they thought we caused the smell, and told them that we were okay with keeping the room for the night. We will be checking out early and canceling the rest of our reservation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r196812233-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196812233</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Quality Inn and Filth</t>
+  </si>
+  <si>
+    <t>January 27th, 2014 our plane was delayed and United Airlines put us up in this place.The suite was very nice but very filthy.  The bed spread had stains and scum on it.  I threw it on the floor.  That prompted me to look at the sheets.  I pulled the top sheet back and it was obvious someone had sleep on the sheets before me. I wasn't born yesterday.  Clean sheets are creased not all wrinkled.  Laying in bed I was placing my meds on the bedside table and dropped one pill on the floor and reached down to pick it up. OMG! Talk about a filthy carpet  . Yuck!  The airline had the hotel provide food vouchers and we were able to order in Chinese food which was quick and plentiful.  The staff was super friendly and accommodating..  The cleanliness was not there. Nice suite but Get Scrubbing.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>January 27th, 2014 our plane was delayed and United Airlines put us up in this place.The suite was very nice but very filthy.  The bed spread had stains and scum on it.  I threw it on the floor.  That prompted me to look at the sheets.  I pulled the top sheet back and it was obvious someone had sleep on the sheets before me. I wasn't born yesterday.  Clean sheets are creased not all wrinkled.  Laying in bed I was placing my meds on the bedside table and dropped one pill on the floor and reached down to pick it up. OMG! Talk about a filthy carpet  . Yuck!  The airline had the hotel provide food vouchers and we were able to order in Chinese food which was quick and plentiful.  The staff was super friendly and accommodating..  The cleanliness was not there. Nice suite but Get Scrubbing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r171964788-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171964788</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>we stayed at this motel twice this summer. both stays we were greeted by the friendly and helpful staff. we like this motel because you are located minutes away from the woodlands to the north and downtown to the south. another thing we liked about this motel is the locked gate. after checking in, your room key also serves as a gate key. so you are safe and secure behind the gate. our only complaint is that the pool could have been a little bigger.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r168791184-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168791184</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Love this hotel! Adore the manager :)</t>
+  </si>
+  <si>
+    <t>Second stay at this hotel. ALL staff are friendly and helpful. Tony the manager runs a tight ship and it shows. Spotlessly clean, nice smelling room, white towels, great pool, fresh breakfast, clean well equipped gym and laughs! Seriously... Tony and his staff make you feel special and the price is so reasonable. A true gem! We came from London England and will be back :) thank you all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r167214640-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167214640</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>My daughter stayed here with a couple of her dance friends for 3 weeks for a dance intensive in the area. She loved Ms. Nancy. She was very hospitable to her and baked cookies for them during the week. My daughter even wrote her a warm thank you letter towards the end of her stay. It's decently priced and I like that it includes a hot breakfast. My daughters ONLY complaint is that the pool was foggy. They complained and it was cleaned the following day. Also, the pull out mattress in the soda is not at all comfortable.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r159150846-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159150846</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>This is an average hotel for the money, Rooms were clean, breakfast was average and the breakfast was ok,  there was a heavy cigarette smell in the hallways on the main floor so the ventilation is poor in the hallways.  But I didn't sleep in the hallways. You definitely need to as for a room at the back or a quiet room as we did,  The freeway is all around and can be noisy. Here is my petty peeve,  The manager was very nice and accommodating but he parks his car right in the entranceway congesting the area to drive up and check in and out... yes life could be worse but I just thought I would throw that in...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This is an average hotel for the money, Rooms were clean, breakfast was average and the breakfast was ok,  there was a heavy cigarette smell in the hallways on the main floor so the ventilation is poor in the hallways.  But I didn't sleep in the hallways. You definitely need to as for a room at the back or a quiet room as we did,  The freeway is all around and can be noisy. Here is my petty peeve,  The manager was very nice and accommodating but he parks his car right in the entranceway congesting the area to drive up and check in and out... yes life could be worse but I just thought I would throw that in...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r157137837-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157137837</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Above and beyond</t>
+  </si>
+  <si>
+    <t>The management is EXCELLENT at this hotel. In turn the employees have been trained and taught how to take care of the guest. I have used this hotel many times in the last few months for myself and my crew. They have gone above and beyond any other hotel has ever done. We appreciate the hospitality that has been shown to us from the cleaning crew all the way up to the manager Tony. Thanks again for our home away from home while we complete a job in Houston,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r157119923-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157119923</t>
+  </si>
+  <si>
+    <t>Perfectly Pleasant Property...</t>
+  </si>
+  <si>
+    <t>Nice reception by the manager, I took his suggestion for a non-upgraded room for more peace and quiet.  Breakfast downstairs included basic eggs and bacon, tea, coffee, cereal, etc.  Perfectly fine for a quick trip.  I was hesitant to give 5 stars for a basic property, but for its price group, I really can't ask for more.  :-)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r150821184-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150821184</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Clean, nice, and affotable!</t>
+  </si>
+  <si>
+    <t>We had to leave in a hurry and I booked this hotel based upon other tripadvisor recommendations and it was a good choice. The hotel is right off I 45 and we didn't hear road traffic from the highway. Room was clean, bed was comfortable and breakfast was more than adequate!  We enjoyed our stay and the price was very reasonable.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r139303356-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139303356</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>A real hidden Gem</t>
+  </si>
+  <si>
+    <t>Real Eggs for Breakfast, Clean room and great mattress!  Oh,, and don't forget the staff. Great People. Had an issue with shower not getting hot enough. Maintenance had it fixed promptly.Easy access off I 45 with several restaurants nearby. Stayed at several other hotels in Houston until I found this oneI highly recommend. Great value for the money. Will be headed back that way soon.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r136059779-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136059779</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>Depending on what you're looking for this hotel is ok. It isn't far from the airport. Close to many restaurants and supermarket. The room is larger than most hotel rooms. Has a fridge and microwave. I slept very well on the mattress. The area isn't the best. But the hotel is very quiet. I did not like the low hung shower head in the bathroom. Also, water pressure was super low. The front desk check-in was fairly fast. But don't look for service with a smile. Not the friendliest bunch.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r41908881-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>41908881</t>
+  </si>
+  <si>
+    <t>09/15/2009</t>
+  </si>
+  <si>
+    <t>Actual Really Nice</t>
+  </si>
+  <si>
+    <t>Stayed there when I was moving down to Houston for few nights. I usually don't stay at Quality Inn's but this hotel was the nicest hotel in the area. Hotel looked to just recently redone and it was great. The lobby is gorgeous. The breakfast was a hot breakfast and not a continental breakfast which I personally don't like.  There was enough parking for your large truck and it was secured. Great start to your life in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>GMQuality, Manager at Quality Inn &amp; Suites North, responded to this reviewResponded November 14, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2010</t>
+  </si>
+  <si>
+    <t>Stayed there when I was moving down to Houston for few nights. I usually don't stay at Quality Inn's but this hotel was the nicest hotel in the area. Hotel looked to just recently redone and it was great. The lobby is gorgeous. The breakfast was a hot breakfast and not a continental breakfast which I personally don't like.  There was enough parking for your large truck and it was secured. Great start to your life in Houston.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1236,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1268,2352 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>232</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K37" t="s">
+        <v>264</v>
+      </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>272</v>
+      </c>
+      <c r="X38" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_514.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_514.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r614097319-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1485278</t>
+  </si>
+  <si>
+    <t>614097319</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>Where do I start ?</t>
+  </si>
+  <si>
+    <t>Shuttle - the hotel ignore emails/Twitter/correspondence through booking app. If you live outside of the US you have to ring which costs a hefty amount. When you do get through they have no idea where to meet you, you then ring the hotel on arrival to track down the driver. Again at your expense. I wasn’t even sure someone would even be there. Once you find your driver the minibus boot is full of cardboard boxes and you therefore have to pile bags in every available space. Every other hotel shuttle I’ve emailed to book then telephoned once we’ve collected luggage.   Reception - miserable staff although this area is clean and modern.Breakfast - the only positive thing this hotel has going for it, that and free WiFi.Pool - empty glass beer bottles, murky pool and cigarette ends littered around.Vending machines - none worked Rooms - the hotel states on trip advisor it’s been refurbished throughout. They’ve clearly not been in any rooms. As you walked in we could smell damp, we thought this would be from the air con. Err no that would be the mouldy walls, carpet and door frame from the leaking shower. Cigarette burns on the bedding, dirt along the skirting board/carpets and light fitting so heavily stained by nicotine you needs hand sanitiser just to touch them. Pictures provided. Do yourself a favour any stay elsewhere MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Shuttle - the hotel ignore emails/Twitter/correspondence through booking app. If you live outside of the US you have to ring which costs a hefty amount. When you do get through they have no idea where to meet you, you then ring the hotel on arrival to track down the driver. Again at your expense. I wasn’t even sure someone would even be there. Once you find your driver the minibus boot is full of cardboard boxes and you therefore have to pile bags in every available space. Every other hotel shuttle I’ve emailed to book then telephoned once we’ve collected luggage.   Reception - miserable staff although this area is clean and modern.Breakfast - the only positive thing this hotel has going for it, that and free WiFi.Pool - empty glass beer bottles, murky pool and cigarette ends littered around.Vending machines - none worked Rooms - the hotel states on trip advisor it’s been refurbished throughout. They’ve clearly not been in any rooms. As you walked in we could smell damp, we thought this would be from the air con. Err no that would be the mouldy walls, carpet and door frame from the leaking shower. Cigarette burns on the bedding, dirt along the skirting board/carpets and light fitting so heavily stained by nicotine you needs hand sanitiser just to touch them. Pictures provided. Do yourself a favour any stay elsewhere More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r613598340-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>613598340</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely filthy. No attempts have been made to ensure the cleanliness of the hotel. The hallways are so dirty you would think that you were outside. The room is a little cleaner, but has bugs and the furniture is all banged up. You will regret this stay. A lot of maintenance needs to be done to this hotel. You can’t overlook the amount of stuff wrong here.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r601594151-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601594151</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Needs improvement &amp; remodeling</t>
+  </si>
+  <si>
+    <t>Location is right off the freeway which makes it very convenient. Walmart is super close too if needed. The room we stayed was worn out. There were tears in the carpet. The toilet leaked which got the mat all soaking wet (i thought was caused by showering but nope). The blow dryer was the worst. The switches and the end cap were missing. On our last night, the next door guest were playing the bass guitar super loud. I went to grab the phone to call front desk and what do you know, the phone wasn't even plugged in! Looked every where and no cords to be found. I had to walk downstairs to tell the front desk.  Probably a hour later (10:30pm), the loud bass was being played again. I had to call front desk again from my cell phone.  Breakfast area were the food was served was a squeeze. Rude guests who blocked the are which made getting food difficult.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location is right off the freeway which makes it very convenient. Walmart is super close too if needed. The room we stayed was worn out. There were tears in the carpet. The toilet leaked which got the mat all soaking wet (i thought was caused by showering but nope). The blow dryer was the worst. The switches and the end cap were missing. On our last night, the next door guest were playing the bass guitar super loud. I went to grab the phone to call front desk and what do you know, the phone wasn't even plugged in! Looked every where and no cords to be found. I had to walk downstairs to tell the front desk.  Probably a hour later (10:30pm), the loud bass was being played again. I had to call front desk again from my cell phone.  Breakfast area were the food was served was a squeeze. Rude guests who blocked the are which made getting food difficult.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r585603345-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585603345</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family vacation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service was terrible tried to give us a room someone was already in , it’s in a rundown area but they do have gated entry, the tub was rusted walls were cracked and nasty. Even saw bugs in the room I was very disappointed especially for this bring Quality inn  </t>
+  </si>
+  <si>
+    <t>June 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r570390383-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1485278</t>
-  </si>
-  <si>
     <t>570390383</t>
   </si>
   <si>
@@ -210,6 +291,54 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r529476937-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529476937</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>QUALITY (???) INN</t>
+  </si>
+  <si>
+    <t>The common area outside the check-in desk is fresh and contemporary.  The halls and my room, well......that's a different story.  The bed is reasonably comfortable.  The room is spacious.  The WiFi Speed is pretty good. 2 SHARP TV's with good reception.  The freeway noise woke me a couple times during the night. The shower floor is dirty.  What's up with the missing bathroom wall?  Check out the photos.  Furniture is dirty, dated and worn.  The room shows a half-hearted remodel.  Some drywall is showing water damage. Paint peeling off the walls................................I expected more from a Quality Inn, based on some others I have stayed at previously.  $97/night.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r509580282-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509580282</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>They put a handicapped person in a 2nd floor room and their elevator wasn't working.</t>
+  </si>
+  <si>
+    <t>I mistakenly booked this location vs the Overland Trails Quality Suites Location, but I thought I'll try it. I have a physical mobility challenge. They assigned me a room on the second floor but their elevator door wouldn't close and they had complaints about that in June. So they knew. The place was hot and smelled musty. I called Hotels.com to get them to change the booking and he couldn't get through to the manager. He emailed them to say I needed to cancel the reservation. I checked my bank today, and I'm being charged for both rooms - the new location and the one I tried to cancel. Customer Service spoke with the manager and they wouldn't budge on charging me for a room I couldn't use.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>GMQuality, Front Office Manager at Quality Inn &amp; Suites North, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>I mistakenly booked this location vs the Overland Trails Quality Suites Location, but I thought I'll try it. I have a physical mobility challenge. They assigned me a room on the second floor but their elevator door wouldn't close and they had complaints about that in June. So they knew. The place was hot and smelled musty. I called Hotels.com to get them to change the booking and he couldn't get through to the manager. He emailed them to say I needed to cancel the reservation. I checked my bank today, and I'm being charged for both rooms - the new location and the one I tried to cancel. Customer Service spoke with the manager and they wouldn't budge on charging me for a room I couldn't use.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r505254290-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -228,9 +357,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r498054180-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -267,6 +393,42 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r485880779-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485880779</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Decent hotel for the price</t>
+  </si>
+  <si>
+    <t>Clean, decent place for the money. Friendly staff, secure parking. Not the Ritz, but a good bargain. On standard for Quality Inns. I would stay there again, rooms were clean, tv was good, staff was helpful and nice.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r481584744-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481584744</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Aweful!</t>
+  </si>
+  <si>
+    <t>Our flight cancelled and we ended up staying the night at our layover in Houston. The Quality Inn and Suites is where we ended up. This 3 star hotel is anything but. We needed 2 rooms as we were a family of 6. That was fine but the one room was a king and a pull-out sofa. The mattress was disgusting with huge brown stains. The sheets we had to ask for were similar with holes and stains. Super gross. Also not enough towels in that room and when asked for more (there were 2 towels and we needed 3) they gave me a hard time and said they stocked it correctly. Breakfast was ok but nothing to brag about. I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our flight cancelled and we ended up staying the night at our layover in Houston. The Quality Inn and Suites is where we ended up. This 3 star hotel is anything but. We needed 2 rooms as we were a family of 6. That was fine but the one room was a king and a pull-out sofa. The mattress was disgusting with huge brown stains. The sheets we had to ask for were similar with holes and stains. Super gross. Also not enough towels in that room and when asked for more (there were 2 towels and we needed 3) they gave me a hard time and said they stocked it correctly. Breakfast was ok but nothing to brag about. I would not recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r471988495-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,6 +486,42 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r450579666-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450579666</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Friendly service</t>
+  </si>
+  <si>
+    <t>I booked the room because I needed a ride from the airport, but by the time I arrived at the hotel I felt like the song by Randy Newman "You've got a friend in me". The manager was so personable, Houston didn't feel so...big and scary.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r441020898-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441020898</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Disappointing, not recommended</t>
+  </si>
+  <si>
+    <t>Booked on Expedia because it claimed an airport shuttle but after checkin found out shuttle was limited and only ran after 8am - not practical for most air travellers. Now face a $30 cab fare and traffic delays as several miles from Bush IAH.Only an hour in the room and a large roach appeared. Office chair in room looked like it was rescued from a dump (and not The Dump store which is next  door) as badly worn. Rooms are old but acceptable.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r435637699-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -357,9 +555,6 @@
     <t>I arrived at the hotel and checked in. My Visa card wouldn't work and I had no alternative means of paying. I eventually was able to get a family member to pay over the internet but in the mean time the manager allowed me to use his personal cell phone to call my bank.He was incredibly patient and friendy, gave me a welcome pack for my trouble. The gesture went a long way and made a great impression</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r428910038-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -375,15 +570,48 @@
     <t>Very clean and the staff was very helpful and friendly, but this hotel is not well maintained.  The hairdryer was broken, the coffee machine did not work correctly, the toilet ran the whole weekend I was there and the cable channels would go in and out.  Normally a little wear and tear doesn't bother me, but this went beyond that.  i would not recommend this place, which is unfortunate because the staff was really great.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r417501790-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417501790</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Don't waste your time!!</t>
+  </si>
+  <si>
+    <t>Booked a room over the phone the Wednesday before Labor Day wknd for Labor Day weekend. Asked the hotel clerk who I believe name was Catherine, do they require a deposit fee and she told me no. When I called that Friday because my email confirmation was wrong they informed me that they do require a $60 deposit fee yet their email confirmation says $40 deposit. Nevertheless we ended up staying at the hotel. In our King Suite the first morning we wake up I noticed a roach on the side table and right on the ground by the roach was a pair of false eyelashes. Guess house cleaning forgot to get those when they "cleaned up".At first I thought maybe the roach came from the patio or something outside till we noticed another one in our restroom sink, then 3 more in the fridge. By this time I go down to the front desk and ask to speak to the manager. The front desk lady says he is currently there at the hotel but he told her he is too busy at the moment and can't come down to speak with me. Too busy to come discuss your roach problem??? So they offer me another room and told me I had to wait 45 minutes while they get that room ready. Well 45 minutes turned into an hour and a half and the room was finally ready.. or so...Booked a room over the phone the Wednesday before Labor Day wknd for Labor Day weekend. Asked the hotel clerk who I believe name was Catherine, do they require a deposit fee and she told me no. When I called that Friday because my email confirmation was wrong they informed me that they do require a $60 deposit fee yet their email confirmation says $40 deposit. Nevertheless we ended up staying at the hotel. In our King Suite the first morning we wake up I noticed a roach on the side table and right on the ground by the roach was a pair of false eyelashes. Guess house cleaning forgot to get those when they "cleaned up".At first I thought maybe the roach came from the patio or something outside till we noticed another one in our restroom sink, then 3 more in the fridge. By this time I go down to the front desk and ask to speak to the manager. The front desk lady says he is currently there at the hotel but he told her he is too busy at the moment and can't come down to speak with me. Too busy to come discuss your roach problem??? So they offer me another room and told me I had to wait 45 minutes while they get that room ready. Well 45 minutes turned into an hour and a half and the room was finally ready.. or so we thought. We get to the room and it's not a King suite(what I paid for) it's just a regular room. By this time I'm so frustrated and mad I request for my money back. Finally the manager comes down, doesn't apologize for their inconvenience, rudeness, lack of customer service or anything else just hands me my money and explains how he took off money for the roach problem.. Yeah thanks will never go back to this hotel again, hopefully this will help someone else save their time and money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked a room over the phone the Wednesday before Labor Day wknd for Labor Day weekend. Asked the hotel clerk who I believe name was Catherine, do they require a deposit fee and she told me no. When I called that Friday because my email confirmation was wrong they informed me that they do require a $60 deposit fee yet their email confirmation says $40 deposit. Nevertheless we ended up staying at the hotel. In our King Suite the first morning we wake up I noticed a roach on the side table and right on the ground by the roach was a pair of false eyelashes. Guess house cleaning forgot to get those when they "cleaned up".At first I thought maybe the roach came from the patio or something outside till we noticed another one in our restroom sink, then 3 more in the fridge. By this time I go down to the front desk and ask to speak to the manager. The front desk lady says he is currently there at the hotel but he told her he is too busy at the moment and can't come down to speak with me. Too busy to come discuss your roach problem??? So they offer me another room and told me I had to wait 45 minutes while they get that room ready. Well 45 minutes turned into an hour and a half and the room was finally ready.. or so...Booked a room over the phone the Wednesday before Labor Day wknd for Labor Day weekend. Asked the hotel clerk who I believe name was Catherine, do they require a deposit fee and she told me no. When I called that Friday because my email confirmation was wrong they informed me that they do require a $60 deposit fee yet their email confirmation says $40 deposit. Nevertheless we ended up staying at the hotel. In our King Suite the first morning we wake up I noticed a roach on the side table and right on the ground by the roach was a pair of false eyelashes. Guess house cleaning forgot to get those when they "cleaned up".At first I thought maybe the roach came from the patio or something outside till we noticed another one in our restroom sink, then 3 more in the fridge. By this time I go down to the front desk and ask to speak to the manager. The front desk lady says he is currently there at the hotel but he told her he is too busy at the moment and can't come down to speak with me. Too busy to come discuss your roach problem??? So they offer me another room and told me I had to wait 45 minutes while they get that room ready. Well 45 minutes turned into an hour and a half and the room was finally ready.. or so we thought. We get to the room and it's not a King suite(what I paid for) it's just a regular room. By this time I'm so frustrated and mad I request for my money back. Finally the manager comes down, doesn't apologize for their inconvenience, rudeness, lack of customer service or anything else just hands me my money and explains how he took off money for the roach problem.. Yeah thanks will never go back to this hotel again, hopefully this will help someone else save their time and money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r416274077-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416274077</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Not for the faint of heart!</t>
+  </si>
+  <si>
+    <t>The hotel was clean enough and the staff was sufficiently pleasant when I wanted to change rooms at 3:00 in the morning because of the screaming in the next room and fist repeatedly hitting the wall behind the headboard.  They were able to relocate me into another room, but the front desk clerk didn't seem well-equipped to handle the situation when the occupants of the room transferred their "discussion" to the lobby.   I suppose it would be a convenient enough spot if you are just passing through and need a place to stop.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r416072470-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
     <t>416072470</t>
   </si>
   <si>
-    <t>09/08/2016</t>
-  </si>
-  <si>
     <t>Great Stay</t>
   </si>
   <si>
@@ -429,6 +657,39 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r376230786-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376230786</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Nice room, convenient location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for 3 nights. It was a room with 2 queen beds. Its big. It has a microwave and fridge. The bathroom is spacious enough. The pool was not in service by the time we were there. It includes a good and hot breakfast. The customer service was good as well. Its not a fancy hotel but its good for the price. It has free fast wifi. It has a secure parking lot. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r372493713-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>372493713</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Hospitality par excellence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short drive from the airport. Right off the freeway. 20 minutes drive to downtown. Free gated parking. Free wifi. Rooms are clean and well maintained. The most amazing thing is the friendly and efficient staff at this inn. Right from check in to check out. They go out of their way to make your stay comfortable. Would definitely stay here again </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r367778730-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -478,6 +739,44 @@
   </si>
   <si>
     <t>Stayed one night in this hotel. The hotel interior looks old and not fresh. Room is okay, nothing special. The breakfast does not have a lot of variety, but it has a hot section. Slightly below par compared to other hotels bearing Quality Inn name. The room price offered is quite competitive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r354619199-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354619199</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Fraudulent Hotel</t>
+  </si>
+  <si>
+    <t>This was suppose to be a nice little get away for me and my husband . The reviews made it sound like iT was nice and i only needed it for one night before he left to go back to work for 2 weeks.
+So when i first checked in the hotel there was a lady named Michelle at the front desk who ask for a deposit fee of $60.00 bucks i gave that to her. Until i realized i had not withdrew enough money for my hotel room. I knew nothing about the extra $60.00 it only said $40.00 on Expedia. So i got out only $160. So i told her i would be back so could she keep my deposit? She said "yes" and Mins after wondering why it was so high i called back and was told it was for the room and the deposit, but i had just given her the deposit in cash. She claimed she didn't remember me giving that to her and she would have to rollback the cameras to see, and that i shouldn't be tripping, because it was ONLY $60 BUCKS.!!! So when i said sure we can roll them back. She then stated she didn't have time to do all that so she would just give me the $60 bucks out of her paycheck. How unprofessional is that? All i wanted was my money that i had given to her....This was suppose to be a nice little get away for me and my husband . The reviews made it sound like iT was nice and i only needed it for one night before he left to go back to work for 2 weeks.So when i first checked in the hotel there was a lady named Michelle at the front desk who ask for a deposit fee of $60.00 bucks i gave that to her. Until i realized i had not withdrew enough money for my hotel room. I knew nothing about the extra $60.00 it only said $40.00 on Expedia. So i got out only $160. So i told her i would be back so could she keep my deposit? She said "yes" and Mins after wondering why it was so high i called back and was told it was for the room and the deposit, but i had just given her the deposit in cash. She claimed she didn't remember me giving that to her and she would have to rollback the cameras to see, and that i shouldn't be tripping, because it was ONLY $60 BUCKS.!!! So when i said sure we can roll them back. She then stated she didn't have time to do all that so she would just give me the $60 bucks out of her paycheck. How unprofessional is that? All i wanted was my money that i had given to her. Not only did she try and over charge me for One night, (extra 70 bucks more than the room), but after i checked out 3 days ago i got two more charges that hit my bank account for over $100 Bucks. And when i called to ask what they charged me for they said they only had one charge for that one night i stayed. But that was a BIG FAT LIE. This is my third  time calling and asking what they charged me for, because i got another charge on my account this morning. But just like the other calls they didn't see anything. And i was told that since i booked with Expedia that the hotel wasn't allowed to charge me, because i already pre-paid for it. Now i'm going to cancel my credit card, before i wake up with another transaction of $100 Bucks. {{OVERALL]]PROS: The room was nice for the price and the breakfast was too. It would have been better if they had eggs, sausage, or some kind of meat seeing how my husband loves a big breakfast. CONS: It got very hot in the middle of the night with the A/C on HIGH that when i checked my husband he was SWEATING BADLY. Normally we don't even notice if people bring their kids with them when we book from other hotels. But we heard every noise possible from crying babies, to people in the hallways talking extremely loud. And The Parking sucked and they had spider webs badly on the ceilings towards the rooms. Except the lobby where they had the breakfast that was the only decent part of the hotel. Would only recommend this hotel to someone who doesn't have kids and are going by themselves and paying cash. But you get what you pay for other than them trying to rip me off the hotel was pretty okay. It looked nothing like the pictures online so don't be fooled. Will i book again ? NO WAY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was suppose to be a nice little get away for me and my husband . The reviews made it sound like iT was nice and i only needed it for one night before he left to go back to work for 2 weeks.
+So when i first checked in the hotel there was a lady named Michelle at the front desk who ask for a deposit fee of $60.00 bucks i gave that to her. Until i realized i had not withdrew enough money for my hotel room. I knew nothing about the extra $60.00 it only said $40.00 on Expedia. So i got out only $160. So i told her i would be back so could she keep my deposit? She said "yes" and Mins after wondering why it was so high i called back and was told it was for the room and the deposit, but i had just given her the deposit in cash. She claimed she didn't remember me giving that to her and she would have to rollback the cameras to see, and that i shouldn't be tripping, because it was ONLY $60 BUCKS.!!! So when i said sure we can roll them back. She then stated she didn't have time to do all that so she would just give me the $60 bucks out of her paycheck. How unprofessional is that? All i wanted was my money that i had given to her....This was suppose to be a nice little get away for me and my husband . The reviews made it sound like iT was nice and i only needed it for one night before he left to go back to work for 2 weeks.So when i first checked in the hotel there was a lady named Michelle at the front desk who ask for a deposit fee of $60.00 bucks i gave that to her. Until i realized i had not withdrew enough money for my hotel room. I knew nothing about the extra $60.00 it only said $40.00 on Expedia. So i got out only $160. So i told her i would be back so could she keep my deposit? She said "yes" and Mins after wondering why it was so high i called back and was told it was for the room and the deposit, but i had just given her the deposit in cash. She claimed she didn't remember me giving that to her and she would have to rollback the cameras to see, and that i shouldn't be tripping, because it was ONLY $60 BUCKS.!!! So when i said sure we can roll them back. She then stated she didn't have time to do all that so she would just give me the $60 bucks out of her paycheck. How unprofessional is that? All i wanted was my money that i had given to her. Not only did she try and over charge me for One night, (extra 70 bucks more than the room), but after i checked out 3 days ago i got two more charges that hit my bank account for over $100 Bucks. And when i called to ask what they charged me for they said they only had one charge for that one night i stayed. But that was a BIG FAT LIE. This is my third  time calling and asking what they charged me for, because i got another charge on my account this morning. But just like the other calls they didn't see anything. And i was told that since i booked with Expedia that the hotel wasn't allowed to charge me, because i already pre-paid for it. Now i'm going to cancel my credit card, before i wake up with another transaction of $100 Bucks. {{OVERALL]]PROS: The room was nice for the price and the breakfast was too. It would have been better if they had eggs, sausage, or some kind of meat seeing how my husband loves a big breakfast. CONS: It got very hot in the middle of the night with the A/C on HIGH that when i checked my husband he was SWEATING BADLY. Normally we don't even notice if people bring their kids with them when we book from other hotels. But we heard every noise possible from crying babies, to people in the hallways talking extremely loud. And The Parking sucked and they had spider webs badly on the ceilings towards the rooms. Except the lobby where they had the breakfast that was the only decent part of the hotel. Would only recommend this hotel to someone who doesn't have kids and are going by themselves and paying cash. But you get what you pay for other than them trying to rip me off the hotel was pretty okay. It looked nothing like the pictures online so don't be fooled. Will i book again ? NO WAY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r350916479-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350916479</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>It was okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: You need a gate code to get into the parking lot.Comfy bed.Rooms look very nice, flat screen tvs and all that.Staff is friendly. I was only here for one night.Cons:Either the walls are really thin or the guests are really loud. I'm not generally a light sleeper and I kept hearing doors slam and people talking in the next room at like 3am. Wifi sucks.Bottom line... If you're a light sleeper , I wouldn't suggest staying here. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r337085642-Quality_Inn_Suites_North-Houston_Texas.html</t>
@@ -542,6 +841,42 @@
  when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will...Well just want give a shout out to Quality Inn &amp; Suites for going above and beyond customer service i was in a room where I developed some sort of bites on my arms and chest, when I went to check out this morning I just showed the manager she said you need to go get that checked out, She said go to Urgent care and get checked out and they will take care of the medical charges, well while I was still there at the front desk getting ready to check out she said stay tonight I will give you another room and we will take care of it for tonight, I was like don't worry I am not the type that is going to cause a stink over this, she said that's is the least we can do so while they was checking me back in to the hotel she made me a plate of Popeye's chicken and mashed potatoes that she had brought in for her employees and room service people and bought me a coke, so I went to Concentra urgent care and then went to WallGreens to get my prescriptions filled got back to the hotel the manager was still there and asked me how much did they charge you I want to take care of the bill I said they didn't charge me anything yet insurance will take care of what part they will and then I will get a bill she said ok just let me know also how much was your medicine I will take care of that,  I said listen I really appreciate that but don't worry about reimbursement on my medicine and I don't expect to get the room I'm in now for Free for the next few nights but what can you do on the room for a few more nights so she let me have the jaccuzzi suite till Wednesday at a very very affordable rate, so there is some good people still left in the world thank you so much Gina Cisneros-Courtney for being a good manager and even a better person,  I know when i am in Houston by myself or with  my wife I know where we will be staying at and what room# this is really an amazing room. So if you are in the Houston,TX area I would strongly suggest you call them up and enjoy the amazing hospitality that I have received with an outstanding staff that includes Sparkle, Eric, TimMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r278255915-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278255915</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Standard 2 Star Hotel</t>
+  </si>
+  <si>
+    <t>Drove down to Houston for my cousins graduations and was looking for an inexpensive hotel that was nearby. Quality Inn met my expectations. It was clean, check in was fast and my rate was low (about 60 for one night). Breakfast spread looked nice, plentiful and carb heavy, as to be expected. Does face the highway, but I couldn't hear it inside and my room was right by it. Appreciated that they had a parking lot only accessible by key card.Overall, a nice place. This is a 2 star motel so I knew not to expect a 5 star experience.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r268750946-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268750946</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Average 2 star - Good Rates</t>
+  </si>
+  <si>
+    <t>Keep in mind that this is a 2 star property, so you're trading some perks for a very good rate, but it's still worthwhile if a good rate is your priority.Pro's:Hotel has a nice look to itStaff was friendly &amp; accommodatingRoom was cleanGood ratesFree internetCons:Room did have a slight odor (and some Lysol in the air)It looks like there are at least a few people who live in the hotel &amp; it was just a bit noisyI might stay here again for a work trip, but otherwise probably not.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r266259061-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -557,9 +892,6 @@
     <t>The people at the front desk are well-trained. Very polite. I give the room itself 7.5 out of ten. It is fairly modern. The wood furniture is showing some wear. The vent fan in the bathroom was very loud. There are two electrical outlets on the lamp by the bed. Bed comfort- I have had both better and worse. The building must be well-insulated because you can barely hear the freeway outside. I didn't have the breakfast. The parking lot is gated. They do have smoking rooms.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r264985577-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -605,6 +937,54 @@
     <t>I spent $126, including tax for this hotel and am sorry I did. I tried to contact the hotel to inquire about shuttle service from the airport - I didn't hear a human voice for 15 minutes. I was expecting a free shuttle but found out I needed to reserve 12 hours in advance. FYI, you can expect to pay $40, including tip, one way from the airport to the hotel. The roll out sofa bed was awful. It was uncomfortable and stained - so three of us shared the king bed. The hotel is right near the highway and although our room didn't face the highway side, it was loud and I was awoken by a trash truck at 1 a.m. I contacted the manager who did nothing to compensate for my dissatisfaction and I feel utterly ripped off.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r242769306-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242769306</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Not So Great.</t>
+  </si>
+  <si>
+    <t>Motel is located on North Frwy just south of Sam Houston Pky. The motel isn't easy to get to and you have to be alert of traffic at all times upon trying to enter motel parking lot. I had to turn fan on high to drown out North Freeway traffic which is constant at all times. The ceiling in bathroom was peeling and starting to fall. The hall carpet is way over due to be replaced and coming lose at the seems. The room had a pecular odor from use or cleaning chemicals. It did have a decent breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>GMQuality, Manager at Quality Inn &amp; Suites North, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Motel is located on North Frwy just south of Sam Houston Pky. The motel isn't easy to get to and you have to be alert of traffic at all times upon trying to enter motel parking lot. I had to turn fan on high to drown out North Freeway traffic which is constant at all times. The ceiling in bathroom was peeling and starting to fall. The hall carpet is way over due to be replaced and coming lose at the seems. The room had a pecular odor from use or cleaning chemicals. It did have a decent breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r229591403-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229591403</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Roach infestation at this hotel. DO NOT STAY there</t>
+  </si>
+  <si>
+    <t>I tried to stay at this hotel for one night and after watching TV for a while I noticed roaches started crawling from different places and killed one of them on top of the desk. After seeing a few more I had no choice but to leave. Came down to the front desk and reported the incident. AJ the manager did not believe me that he sent a young lady to the room with me (I found odd to send a young lady to the room with an estranger) he later came in as well. After taking pictures he said that he would not charge for the room and I had to do nothing else. Couple of days later the charge was in my CC and did not honored what he had promised. Bad management all around, not only they do not keep up with the hotel but the lie to their customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I tried to stay at this hotel for one night and after watching TV for a while I noticed roaches started crawling from different places and killed one of them on top of the desk. After seeing a few more I had no choice but to leave. Came down to the front desk and reported the incident. AJ the manager did not believe me that he sent a young lady to the room with me (I found odd to send a young lady to the room with an estranger) he later came in as well. After taking pictures he said that he would not charge for the room and I had to do nothing else. Couple of days later the charge was in my CC and did not honored what he had promised. Bad management all around, not only they do not keep up with the hotel but the lie to their customers.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r218029312-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -665,6 +1045,42 @@
     <t>January 27th, 2014 our plane was delayed and United Airlines put us up in this place.The suite was very nice but very filthy.  The bed spread had stains and scum on it.  I threw it on the floor.  That prompted me to look at the sheets.  I pulled the top sheet back and it was obvious someone had sleep on the sheets before me. I wasn't born yesterday.  Clean sheets are creased not all wrinkled.  Laying in bed I was placing my meds on the bedside table and dropped one pill on the floor and reached down to pick it up. OMG! Talk about a filthy carpet  . Yuck!  The airline had the hotel provide food vouchers and we were able to order in Chinese food which was quick and plentiful.  The staff was super friendly and accommodating..  The cleanliness was not there. Nice suite but Get Scrubbing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r182839722-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182839722</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Me and my wife and two friends were in Houston for a church service and we stayed at a Laquinta Inn. We did so because my wife receives a corporate discount. Man we were shocked at the quality of the room; poor, poor, poor. Their service was horrible and it matched the room perfectly. The tub would fill up with water and the fan that cooled the room never really did.  The next morning the continental breakfast was sub-par. That night I scoured the internet looking for something that was reasonable and more to our taste and liking. That's when we found this Quality Inn; it was right off of I45  and the parking was gated. We were so satisfied that we just booked our latest reservation with them two days after leaving.I love to eat and that continental breakfast was excellent the next morning. This is our new spot whenever we come to Houston.SincerelyHighly SatisfiedMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Me and my wife and two friends were in Houston for a church service and we stayed at a Laquinta Inn. We did so because my wife receives a corporate discount. Man we were shocked at the quality of the room; poor, poor, poor. Their service was horrible and it matched the room perfectly. The tub would fill up with water and the fan that cooled the room never really did.  The next morning the continental breakfast was sub-par. That night I scoured the internet looking for something that was reasonable and more to our taste and liking. That's when we found this Quality Inn; it was right off of I45  and the parking was gated. We were so satisfied that we just booked our latest reservation with them two days after leaving.I love to eat and that continental breakfast was excellent the next morning. This is our new spot whenever we come to Houston.SincerelyHighly SatisfiedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r182634510-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182634510</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Very impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time ever visiting Houston and this hotel was the best. I would recommend this hotel to anyone looking for a nice hotel. Great rooms great wifi connection. Excellent and friendly staff. Good hot continental breakfast. This hotel gets 2 thumbs up....only problem we had the hall way was hot. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r171964788-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -716,7 +1132,46 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r166459413-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166459413</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Unexpected Home</t>
+  </si>
+  <si>
+    <t>I came to Houston on business, and had no intention of staying more than a week.  But when i arrived at the Quality Inn and Suites on North Freeway, purely by chance, i was instantly welcomed in with great smile and warmth.  The manager Tony Le was on top of everything.  Anything i needed, he was there to help out with.  I have traveled a lot and never have i had this much attention and good times.  Shane who worked at the front desk, was always polite, and knew how to handle every situation.  It was just so much fun.  I stayed almost two months because of their hospitality.  Thanks everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I came to Houston on business, and had no intention of staying more than a week.  But when i arrived at the Quality Inn and Suites on North Freeway, purely by chance, i was instantly welcomed in with great smile and warmth.  The manager Tony Le was on top of everything.  Anything i needed, he was there to help out with.  I have traveled a lot and never have i had this much attention and good times.  Shane who worked at the front desk, was always polite, and knew how to handle every situation.  It was just so much fun.  I stayed almost two months because of their hospitality.  Thanks everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r163563848-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163563848</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Very Good Lodging!</t>
+  </si>
+  <si>
+    <t>Hi, I'm a Safety Professional and a frequent traveler. I recently stayed at the Quality Inn and Suites in North Houston. It was superb! I had told the person who made my reservation on the phone that I would be working nights. I got there late that night and didn't notice the location. The room they gave me was not good for a day sleeper, it was on the East side and near the swimming pool. There were a lot of folks out by the pool on my first, day and I couldn't sleep. I was very upset. The manager, Mr. Tony Le came through for me like a rock star! He comped the first night, got me a quite room on the west side and set up housekeeping to clean my room after 4 pm. Besides being very personable and helpful to me, Mr. Le runs a great hotel. It's clean, attractive, quite, and comfortable. I was very impressed with Mr. Le and this hotel/motel. Keep up the good Work!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Hi, I'm a Safety Professional and a frequent traveler. I recently stayed at the Quality Inn and Suites in North Houston. It was superb! I had told the person who made my reservation on the phone that I would be working nights. I got there late that night and didn't notice the location. The room they gave me was not good for a day sleeper, it was on the East side and near the swimming pool. There were a lot of folks out by the pool on my first, day and I couldn't sleep. I was very upset. The manager, Mr. Tony Le came through for me like a rock star! He comped the first night, got me a quite room on the west side and set up housekeeping to clean my room after 4 pm. Besides being very personable and helpful to me, Mr. Le runs a great hotel. It's clean, attractive, quite, and comfortable. I was very impressed with Mr. Le and this hotel/motel. Keep up the good Work!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r159150846-Quality_Inn_Suites_North-Houston_Texas.html</t>
@@ -734,9 +1189,6 @@
     <t>This is an average hotel for the money, Rooms were clean, breakfast was average and the breakfast was ok,  there was a heavy cigarette smell in the hallways on the main floor so the ventilation is poor in the hallways.  But I didn't sleep in the hallways. You definitely need to as for a room at the back or a quiet room as we did,  The freeway is all around and can be noisy. Here is my petty peeve,  The manager was very nice and accommodating but he parks his car right in the entranceway congesting the area to drive up and check in and out... yes life could be worse but I just thought I would throw that in...MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>This is an average hotel for the money, Rooms were clean, breakfast was average and the breakfast was ok,  there was a heavy cigarette smell in the hallways on the main floor so the ventilation is poor in the hallways.  But I didn't sleep in the hallways. You definitely need to as for a room at the back or a quiet room as we did,  The freeway is all around and can be noisy. Here is my petty peeve,  The manager was very nice and accommodating but he parks his car right in the entranceway congesting the area to drive up and check in and out... yes life could be worse but I just thought I would throw that in...More</t>
   </si>
   <si>
@@ -767,6 +1219,45 @@
     <t>Nice reception by the manager, I took his suggestion for a non-upgraded room for more peace and quiet.  Breakfast downstairs included basic eggs and bacon, tea, coffee, cereal, etc.  Perfectly fine for a quick trip.  I was hesitant to give 5 stars for a basic property, but for its price group, I really can't ask for more.  :-)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r156475825-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156475825</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Clean, good bed, no big complaints</t>
+  </si>
+  <si>
+    <t>We got this as a reward night for a last-minute booking. No real complaints. Room was great, didn't hear any hall noise unless you were in the bathroom right next to it. Met all our needs...comfy bed, clean room, good hot breakfast, safe feeling. Gated parking lot was nice since on feeder road to I-45.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r153149622-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153149622</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>It is advertised as Econo Lodge as well, but beware!</t>
+  </si>
+  <si>
+    <t>I was stuck in Houston during a very large event week and did not have a hotel booked. Not knowing the area or the chain I booked a week at this location. I asked to see a room because as soon as I was trying to check in the lobby and the other "guests" seemed seedy. When I asked to see a room before checking in the man behind the desk told I might as well get my bags because I was going to be paying for the night anyway. He then gave me a room key and number, when I went to the room to look it had someone in it! I went to the counter again and told him, he got angry with me like I did something wrong. The barb wire fencing around the place tells you  this is not a safe place, it took a call to the corporate office to get my money back because he charged me for all the nights immediately. This is not clean nor is it safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I was stuck in Houston during a very large event week and did not have a hotel booked. Not knowing the area or the chain I booked a week at this location. I asked to see a room because as soon as I was trying to check in the lobby and the other "guests" seemed seedy. When I asked to see a room before checking in the man behind the desk told I might as well get my bags because I was going to be paying for the night anyway. He then gave me a room key and number, when I went to the room to look it had someone in it! I went to the counter again and told him, he got angry with me like I did something wrong. The barb wire fencing around the place tells you  this is not a safe place, it took a call to the corporate office to get my money back because he charged me for all the nights immediately. This is not clean nor is it safe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r150821184-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -818,6 +1309,53 @@
     <t>Depending on what you're looking for this hotel is ok. It isn't far from the airport. Close to many restaurants and supermarket. The room is larger than most hotel rooms. Has a fridge and microwave. I slept very well on the mattress. The area isn't the best. But the hotel is very quiet. I did not like the low hung shower head in the bathroom. Also, water pressure was super low. The front desk check-in was fairly fast. But don't look for service with a smile. Not the friendliest bunch.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r49087168-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49087168</t>
+  </si>
+  <si>
+    <t>11/12/2009</t>
+  </si>
+  <si>
+    <t>Great room, but the devil is in the details</t>
+  </si>
+  <si>
+    <t>Right when I check in, I ask for a free upgrade to a suite with whirlpool tub.  They say no problem.  So far, so good.  I also notice that the parking lot is gated and opens when activated using a guest key, another plus!  Then I get the the room.  It's AWESOME!  You walk-in to a 'living room' with a sofa and tv, which then transitions to a bedroom with a giant tub in it.  This was all great, except the door handle didn't work properly, and the staff couldn't fix it, so they moved me back to my old room.  No big deal.  In the 'regular' room, there's still a ton of space, with a loveseat, chair, desk (with executive chair), beautiful dresser, a 47" LCD, and a king size bed.  We were able to set up our pack'n'play for our infant and put it between the desk and the dresser, it did not really use up any useful space at all.  We got all settled in, then I started noticing things.  
+First, I noticed that the tertiary lock (the one above the deadbolt) was improvised.  It appears that the door is a bit sunk-in and does not align properly in it's frame, so the builders used 4 nuts as a spacer so the lock lined up properly with the frame and could operate (although I don't know how well it would prevent a forced entry).  Really, this was...Right when I check in, I ask for a free upgrade to a suite with whirlpool tub.  They say no problem.  So far, so good.  I also notice that the parking lot is gated and opens when activated using a guest key, another plus!  Then I get the the room.  It's AWESOME!  You walk-in to a 'living room' with a sofa and tv, which then transitions to a bedroom with a giant tub in it.  This was all great, except the door handle didn't work properly, and the staff couldn't fix it, so they moved me back to my old room.  No big deal.  In the 'regular' room, there's still a ton of space, with a loveseat, chair, desk (with executive chair), beautiful dresser, a 47" LCD, and a king size bed.  We were able to set up our pack'n'play for our infant and put it between the desk and the dresser, it did not really use up any useful space at all.  We got all settled in, then I started noticing things.  First, I noticed that the tertiary lock (the one above the deadbolt) was improvised.  It appears that the door is a bit sunk-in and does not align properly in it's frame, so the builders used 4 nuts as a spacer so the lock lined up properly with the frame and could operate (although I don't know how well it would prevent a forced entry).  Really, this was the only flaw in the room, so no big deal.  Then I went back to the car to get a few things and tried getting back into the hotel using my room key.  The door on the second floor would not open.  I tried and tried, but the key would not open the back door to the hotel.  So I went downstairs and tried that  back door.  It worked.   So I took the elevator up to the second floor where my room is and thought nothing of it.  Later that night when my wife and I came back to the hotel from dinner, we used the key to get into the gated parking lot, but it wouldn't work!  I went inside and told the concierge about the problem, and he said not to let the key near a cell phone because it could get scrambled up and stop working!  So he re-programmed our keys and we got in the gate just fine.  But then going up to the second floor back door still wouldn't work, we had to go back down to the first floor and get in that way.  We opened up the elevator and my wife tripped getting in!  We didn't notice before, but now figured out that the tile job in the elevator was not finished.  They did not finish up by laying the transition pieces, so the straight edge of the tile is just sticking out ready to trip anyone that doesn't watch where they're stepping.  The elevator also makes weird noises which can be unnerving.  The keycard problems kept happening for the next day, until we finally told them to give us new cards.  Then the problem went away (although we figured out the card reader to the second floor back door did not work - it wasn't the keycard's problem).  Lastly, the ice maker on the second floor did not work.All in all, the room was above average, there is free wifi (but no wired internet access), a community computer with a printer, a great lounge area, outstanding breakfast buffet, 30 channels (no dvd player), microwave + 5.0 cu/ft refrigerator in the room, and the service was outstanding.  My only problems were with the details - Choice Hotels needs to invest a little more money in fixing up this place and then it'll get 4 stars from me (5 stars could not be achieved because it's kind of in the ghetto).  There was nothing the people working there could have done to alleviate these problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>GMQuality, Manager at Quality Inn &amp; Suites North, responded to this reviewResponded November 14, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2010</t>
+  </si>
+  <si>
+    <t>Right when I check in, I ask for a free upgrade to a suite with whirlpool tub.  They say no problem.  So far, so good.  I also notice that the parking lot is gated and opens when activated using a guest key, another plus!  Then I get the the room.  It's AWESOME!  You walk-in to a 'living room' with a sofa and tv, which then transitions to a bedroom with a giant tub in it.  This was all great, except the door handle didn't work properly, and the staff couldn't fix it, so they moved me back to my old room.  No big deal.  In the 'regular' room, there's still a ton of space, with a loveseat, chair, desk (with executive chair), beautiful dresser, a 47" LCD, and a king size bed.  We were able to set up our pack'n'play for our infant and put it between the desk and the dresser, it did not really use up any useful space at all.  We got all settled in, then I started noticing things.  
+First, I noticed that the tertiary lock (the one above the deadbolt) was improvised.  It appears that the door is a bit sunk-in and does not align properly in it's frame, so the builders used 4 nuts as a spacer so the lock lined up properly with the frame and could operate (although I don't know how well it would prevent a forced entry).  Really, this was...Right when I check in, I ask for a free upgrade to a suite with whirlpool tub.  They say no problem.  So far, so good.  I also notice that the parking lot is gated and opens when activated using a guest key, another plus!  Then I get the the room.  It's AWESOME!  You walk-in to a 'living room' with a sofa and tv, which then transitions to a bedroom with a giant tub in it.  This was all great, except the door handle didn't work properly, and the staff couldn't fix it, so they moved me back to my old room.  No big deal.  In the 'regular' room, there's still a ton of space, with a loveseat, chair, desk (with executive chair), beautiful dresser, a 47" LCD, and a king size bed.  We were able to set up our pack'n'play for our infant and put it between the desk and the dresser, it did not really use up any useful space at all.  We got all settled in, then I started noticing things.  First, I noticed that the tertiary lock (the one above the deadbolt) was improvised.  It appears that the door is a bit sunk-in and does not align properly in it's frame, so the builders used 4 nuts as a spacer so the lock lined up properly with the frame and could operate (although I don't know how well it would prevent a forced entry).  Really, this was the only flaw in the room, so no big deal.  Then I went back to the car to get a few things and tried getting back into the hotel using my room key.  The door on the second floor would not open.  I tried and tried, but the key would not open the back door to the hotel.  So I went downstairs and tried that  back door.  It worked.   So I took the elevator up to the second floor where my room is and thought nothing of it.  Later that night when my wife and I came back to the hotel from dinner, we used the key to get into the gated parking lot, but it wouldn't work!  I went inside and told the concierge about the problem, and he said not to let the key near a cell phone because it could get scrambled up and stop working!  So he re-programmed our keys and we got in the gate just fine.  But then going up to the second floor back door still wouldn't work, we had to go back down to the first floor and get in that way.  We opened up the elevator and my wife tripped getting in!  We didn't notice before, but now figured out that the tile job in the elevator was not finished.  They did not finish up by laying the transition pieces, so the straight edge of the tile is just sticking out ready to trip anyone that doesn't watch where they're stepping.  The elevator also makes weird noises which can be unnerving.  The keycard problems kept happening for the next day, until we finally told them to give us new cards.  Then the problem went away (although we figured out the card reader to the second floor back door did not work - it wasn't the keycard's problem).  Lastly, the ice maker on the second floor did not work.All in all, the room was above average, there is free wifi (but no wired internet access), a community computer with a printer, a great lounge area, outstanding breakfast buffet, 30 channels (no dvd player), microwave + 5.0 cu/ft refrigerator in the room, and the service was outstanding.  My only problems were with the details - Choice Hotels needs to invest a little more money in fixing up this place and then it'll get 4 stars from me (5 stars could not be achieved because it's kind of in the ghetto).  There was nothing the people working there could have done to alleviate these problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r48952553-Quality_Inn_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>48952553</t>
+  </si>
+  <si>
+    <t>11/10/2009</t>
+  </si>
+  <si>
+    <t>Last minute buisness trip introduced me to a great hotel.</t>
+  </si>
+  <si>
+    <t>I recently was called on a last minute buisness and I stumbled apon this Quality Inn. It was very clean and felt brand new. The staff was wonderful and very helpful and did it with smiles on their faces. If I ever head back to Houston this is where I will be staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently was called on a last minute buisness and I stumbled apon this Quality Inn. It was very clean and felt brand new. The staff was wonderful and very helpful and did it with smiles on their faces. If I ever head back to Houston this is where I will be staying.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1485278-r41908881-Quality_Inn_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -834,12 +1372,6 @@
   </si>
   <si>
     <t>September 2009</t>
-  </si>
-  <si>
-    <t>GMQuality, Manager at Quality Inn &amp; Suites North, responded to this reviewResponded November 14, 2010</t>
-  </si>
-  <si>
-    <t>Responded November 14, 2010</t>
   </si>
   <si>
     <t>Stayed there when I was moving down to Houston for few nights. I usually don't stay at Quality Inn's but this hotel was the nicest hotel in the area. Hotel looked to just recently redone and it was great. The lobby is gorgeous. The breakfast was a hot breakfast and not a continental breakfast which I personally don't like.  There was enough parking for your large truck and it was secured. Great start to your life in Houston.More</t>
@@ -1377,10 +1909,14 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1393,7 +1929,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1418,22 +1954,26 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1446,7 +1986,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1462,7 +2002,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1471,26 +2011,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1503,7 +2039,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1519,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1528,25 +2064,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1560,7 +2096,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1576,7 +2112,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1585,45 +2121,35 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1639,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1648,45 +2174,35 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1702,7 +2218,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1711,41 +2227,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1761,46 +2275,44 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1808,7 +2320,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1824,7 +2336,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1833,25 +2345,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1862,10 +2374,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1881,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1890,45 +2406,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1944,7 +2454,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1953,35 +2463,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>112</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
       <c r="O12" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1989,7 +2501,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2005,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2014,37 +2526,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2052,7 +2564,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2068,7 +2580,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2077,35 +2589,37 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2113,7 +2627,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2129,7 +2643,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2138,43 +2652,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -2190,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2199,39 +2709,41 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -2247,7 +2759,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2256,37 +2768,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2294,7 +2806,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2310,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2319,43 +2831,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2371,7 +2879,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2380,39 +2888,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -2428,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2437,37 +2951,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2475,7 +2989,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -2491,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2500,39 +3014,45 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -2548,7 +3068,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2557,39 +3077,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
@@ -2605,7 +3129,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2614,39 +3138,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="N23" t="s">
-        <v>179</v>
-      </c>
-      <c r="O23" t="s">
-        <v>63</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -2662,7 +3192,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2671,26 +3201,22 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>179</v>
-      </c>
-      <c r="O24" t="s">
-        <v>113</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -2703,7 +3229,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -2719,7 +3245,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2728,25 +3254,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2757,12 +3283,8 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>192</v>
-      </c>
-      <c r="X25" t="s">
-        <v>193</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>194</v>
       </c>
@@ -2780,7 +3302,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2789,10 +3311,10 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
         <v>198</v>
@@ -2801,25 +3323,23 @@
         <v>199</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
       <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2827,7 +3347,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
@@ -2864,27 +3384,31 @@
         <v>205</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
         <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
@@ -2900,56 +3424,48 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>208</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>209</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>210</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>211</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>212</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>213</v>
-      </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
@@ -2965,56 +3481,48 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
         <v>215</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>216</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>217</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>218</v>
       </c>
-      <c r="L29" t="s">
-        <v>219</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>220</v>
-      </c>
       <c r="O29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -3030,54 +3538,48 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
         <v>221</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>222</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>223</v>
       </c>
-      <c r="K30" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" t="s">
-        <v>225</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
@@ -3093,50 +3595,46 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+      <c r="J31" t="s">
         <v>226</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>227</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>228</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
         <v>229</v>
       </c>
-      <c r="L31" t="s">
-        <v>230</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>231</v>
-      </c>
       <c r="O31" t="s">
-        <v>232</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3160,50 +3658,44 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
         <v>233</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>234</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>235</v>
       </c>
-      <c r="K32" t="s">
-        <v>236</v>
-      </c>
-      <c r="L32" t="s">
-        <v>237</v>
-      </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="O32" t="s">
-        <v>232</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3211,7 +3703,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -3227,58 +3719,48 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
         <v>240</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J33" t="s">
-        <v>242</v>
-      </c>
-      <c r="K33" t="s">
-        <v>243</v>
-      </c>
-      <c r="L33" t="s">
-        <v>244</v>
-      </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
@@ -3294,50 +3776,44 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
         <v>245</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>246</v>
-      </c>
-      <c r="J34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>247</v>
-      </c>
-      <c r="L34" t="s">
-        <v>248</v>
-      </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3345,7 +3821,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35">
@@ -3361,58 +3837,48 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
         <v>249</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>250</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>251</v>
       </c>
-      <c r="K35" t="s">
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
         <v>252</v>
       </c>
-      <c r="L35" t="s">
-        <v>253</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>254</v>
-      </c>
       <c r="O35" t="s">
-        <v>76</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -3428,50 +3894,46 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
         <v>255</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>256</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>257</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
         <v>258</v>
       </c>
-      <c r="L36" t="s">
-        <v>259</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>260</v>
-      </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3495,54 +3957,48 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>261</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>262</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>263</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" t="s">
-        <v>265</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38">
@@ -3558,7 +4014,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3567,53 +4023,1845 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>206</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>271</v>
-      </c>
-      <c r="O38" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="N39" t="s">
+        <v>278</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
-      <c r="T38" t="s"/>
-      <c r="U38" t="n">
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
         <v>4</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="s">
-        <v>272</v>
-      </c>
-      <c r="X38" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>274</v>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>293</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>302</v>
+      </c>
+      <c r="X43" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X44" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" t="s">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s">
+        <v>331</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>332</v>
+      </c>
+      <c r="O47" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>339</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>346</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>353</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>354</v>
+      </c>
+      <c r="J51" t="s">
+        <v>355</v>
+      </c>
+      <c r="K51" t="s">
+        <v>356</v>
+      </c>
+      <c r="L51" t="s">
+        <v>357</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>358</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>360</v>
+      </c>
+      <c r="J52" t="s">
+        <v>361</v>
+      </c>
+      <c r="K52" t="s">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s">
+        <v>363</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>365</v>
+      </c>
+      <c r="J53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K53" t="s">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s">
+        <v>368</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>369</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>371</v>
+      </c>
+      <c r="J54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>375</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>377</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>378</v>
+      </c>
+      <c r="J55" t="s">
+        <v>379</v>
+      </c>
+      <c r="K55" t="s">
+        <v>380</v>
+      </c>
+      <c r="L55" t="s">
+        <v>381</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>382</v>
+      </c>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>391</v>
+      </c>
+      <c r="J57" t="s">
+        <v>392</v>
+      </c>
+      <c r="K57" t="s">
+        <v>393</v>
+      </c>
+      <c r="L57" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>392</v>
+      </c>
+      <c r="K58" t="s">
+        <v>397</v>
+      </c>
+      <c r="L58" t="s">
+        <v>398</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>118</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>412</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>413</v>
+      </c>
+      <c r="J61" t="s">
+        <v>414</v>
+      </c>
+      <c r="K61" t="s">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s">
+        <v>416</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>417</v>
+      </c>
+      <c r="O61" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>418</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>419</v>
+      </c>
+      <c r="J62" t="s">
+        <v>420</v>
+      </c>
+      <c r="K62" t="s">
+        <v>421</v>
+      </c>
+      <c r="L62" t="s">
+        <v>422</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>423</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>424</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>425</v>
+      </c>
+      <c r="J63" t="s">
+        <v>426</v>
+      </c>
+      <c r="K63" t="s">
+        <v>427</v>
+      </c>
+      <c r="L63" t="s">
+        <v>428</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" t="s">
+        <v>431</v>
+      </c>
+      <c r="K64" t="s">
+        <v>432</v>
+      </c>
+      <c r="L64" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>434</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>435</v>
+      </c>
+      <c r="X64" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>439</v>
+      </c>
+      <c r="J65" t="s">
+        <v>440</v>
+      </c>
+      <c r="K65" t="s">
+        <v>441</v>
+      </c>
+      <c r="L65" t="s">
+        <v>442</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>434</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>435</v>
+      </c>
+      <c r="X65" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36889</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" t="s">
+        <v>446</v>
+      </c>
+      <c r="K66" t="s">
+        <v>447</v>
+      </c>
+      <c r="L66" t="s">
+        <v>448</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+      <c r="O66" t="s">
+        <v>118</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>435</v>
+      </c>
+      <c r="X66" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
